--- a/template/MAGASEEK.xlsx
+++ b/template/MAGASEEK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kouichi/Desktop/Lancers/20250601_エクセルによるマクロファイル作成/dev/pyInvoice/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD95F9FD-8DF9-3B48-9340-321888EBD03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7DB6E5-4B86-1D4D-9168-7CA74D1AF501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="500" windowWidth="26340" windowHeight="18560" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="500" windowWidth="26340" windowHeight="18560" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGASEEK" sheetId="136" r:id="rId1"/>
@@ -701,6 +701,30 @@
     <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -727,30 +751,6 @@
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -809,126 +809,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>5149</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>15446</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>535459</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66933</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9718933" y="1062338"/>
-          <a:ext cx="4872337" cy="1458784"/>
-          <a:chOff x="8732108" y="1050324"/>
-          <a:chExt cx="4422689" cy="1457068"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8732108" y="1050324"/>
-            <a:ext cx="4422689" cy="1457068"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8818410" y="1051378"/>
-            <a:ext cx="4198049" cy="1320853"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1233,7 +1113,7 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="74" zoomScaleNormal="85" zoomScaleSheetLayoutView="74" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="74" zoomScaleNormal="85" zoomScaleSheetLayoutView="74" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1251,46 +1131,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="24">
       <c r="A2" s="2"/>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
       <c r="F4" s="16"/>
@@ -1310,11 +1190,11 @@
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="46" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="17"/>
@@ -1323,11 +1203,11 @@
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="38"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1">
@@ -1721,71 +1601,65 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
     </row>
     <row r="40" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
     </row>
     <row r="42" spans="1:9" ht="13.25" customHeight="1">
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="B43:I43"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
@@ -1794,6 +1668,12 @@
     <mergeCell ref="B41:I41"/>
     <mergeCell ref="B42:I42"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="C13:C37">
@@ -1813,6 +1693,5 @@
     <brk id="1" max="42" man="1"/>
     <brk id="8" max="42" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>